--- a/Technology/Hardware/Monolithic Power Systems.xlsx
+++ b/Technology/Hardware/Monolithic Power Systems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D9615-7BD3-7844-813A-0D61D6E1D94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6F4FE-2563-4546-983B-797C23917C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,18 +550,22 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -893,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,9 +935,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -946,12 +947,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,6 +1004,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,12 +1022,20 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,11 +2406,11 @@
     <v>Powered by Refinitiv</v>
     <v>541.39</v>
     <v>301.69</v>
-    <v>1.1389</v>
-    <v>-3.42</v>
-    <v>-7.332E-3</v>
-    <v>-13.92</v>
-    <v>-3.0064999999999998E-2</v>
+    <v>1.1400999999999999</v>
+    <v>72.59</v>
+    <v>0.17460899999999999</v>
+    <v>-4.72</v>
+    <v>-9.666000000000001E-3</v>
     <v>USD</v>
     <v>Monolithic Power Systems, Inc. is a fabless company that provides semiconductor-based power electronics solutions. The Company operates through one segment that includes the design, development, marketing and sale of semiconductor-based power electronic solutions for the storage and computing, enterprise data, automotive, industrial, communications and consumer markets. Its product families include Direct Current (DC) to DC Products and Lighting Control Products. Its DC to DC integrated circuits (ICs) are used to convert and control voltages within a range of electronic systems, such as portable electronic devices, wireless LAN access points, computers and notebooks, monitors, infotainment applications and medical equipment. Lighting control ICs are used in backlighting and general illumination products. Lighting control ICs for backlighting are used in systems that provide the light source for liquid crystal display (LCD) panels found in computers, monitors, and others.</v>
     <v>3247</v>
@@ -2409,25 +2418,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5808 Lake Washington Blvd NE, KIRKLAND, WA, 98033-7350 US</v>
-    <v>465.08</v>
+    <v>495</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.935114154687</v>
+    <v>45071.994840126565</v>
     <v>0</v>
-    <v>457.32</v>
-    <v>21902210000</v>
+    <v>447</v>
+    <v>23157599360</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
-    <v>463.3</v>
-    <v>51.545099999999998</v>
-    <v>466.42</v>
-    <v>463</v>
-    <v>449.08</v>
-    <v>47305000</v>
+    <v>454.12</v>
+    <v>50.569099999999999</v>
+    <v>415.73</v>
+    <v>488.32</v>
+    <v>483.6</v>
+    <v>47423000</v>
     <v>MPWR</v>
     <v>MONOLITHIC POWER SYSTEMS, INC. (XNAS:MPWR)</v>
-    <v>221807</v>
-    <v>422735</v>
+    <v>2121616</v>
+    <v>603054</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2592,9 +2601,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3015,10 +3024,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA96" sqref="AA96"/>
+      <selection pane="bottomRight" activeCell="AB97" sqref="AB97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3104,19 +3113,19 @@
       <c r="Y1" s="8">
         <v>2022</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="26">
         <v>2023</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="26">
         <v>2024</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="26">
         <v>2025</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="26">
         <v>2026</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="26">
         <v>2027</v>
       </c>
     </row>
@@ -3288,20 +3297,20 @@
       <c r="Y3" s="1">
         <v>1794148000</v>
       </c>
-      <c r="Z3" s="28">
-        <v>1952000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>2307000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>2836000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>3012000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>3528000000</v>
+      <c r="Z3" s="27">
+        <v>1832000000</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>2152000000</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>2642000000</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>2808000000</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>3330000000</v>
       </c>
       <c r="AE3" s="18" t="s">
         <v>109</v>
@@ -3415,23 +3424,23 @@
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7981593491729848E-2</v>
+        <v>2.109747913773008E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18186475409836067</v>
+        <v>0.1746724890829694</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22930212397052441</v>
+        <v>0.22769516728624528</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>6.205923836389271E-2</v>
+        <v>6.2831188493565504E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17131474103585664</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="AE4" s="17">
         <f>(Y4+X4+W4)/3</f>
@@ -4270,7 +4279,7 @@
         <f>Y22/(Y72+Y56+Y61)</f>
         <v>0.32049943605485309</v>
       </c>
-      <c r="AH13" s="21">
+      <c r="AH13" s="64">
         <f>Y67/Y72</f>
         <v>0.23389819741316384</v>
       </c>
@@ -4517,24 +4526,24 @@
       <c r="Y16" s="1">
         <v>1259362000</v>
       </c>
-      <c r="AE16" s="29">
+      <c r="AE16" s="28">
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>1.8937858118460126E-2</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="62">
         <f>AG101/Y3</f>
-        <v>12.207582652044312</v>
-      </c>
-      <c r="AG16" s="30">
+        <v>12.907296031319602</v>
+      </c>
+      <c r="AG16" s="62">
         <f>AG101/Y28</f>
-        <v>50.04252042625528</v>
-      </c>
-      <c r="AH16" s="31">
+        <v>52.91085415562339</v>
+      </c>
+      <c r="AH16" s="63">
         <f>AG101/Y106</f>
-        <v>116.60593831689125</v>
+        <v>123.28954943539671</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>14369000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4690,8 +4699,11 @@
       <c r="AE18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AF18" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4767,12 +4779,16 @@
       <c r="Y19" s="10">
         <v>524937000</v>
       </c>
-      <c r="AE19" s="32">
+      <c r="AE19" s="29">
         <f>Y40-Y56-Y61</f>
         <v>737873000</v>
       </c>
+      <c r="AF19" s="65">
+        <f>AG101/Z3</f>
+        <v>12.640611004366813</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4870,7 +4886,7 @@
         <v>0.67950280750587888</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4947,7 +4963,7 @@
         <v>0.29260000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5024,7 +5040,7 @@
         <v>534786000</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5101,7 +5117,7 @@
         <v>0.29809999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5178,7 +5194,7 @@
         <v>-9849000</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5255,7 +5271,7 @@
         <v>524937000</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5332,7 +5348,7 @@
         <v>0.29260000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5409,7 +5425,7 @@
         <v>87265000</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5486,7 +5502,7 @@
         <v>437672000</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -5584,7 +5600,7 @@
         <v>0.80839011168360031</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5661,7 +5677,7 @@
         <v>0.24390000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5974,95 +5990,95 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <f>(C34-B34)/B34</f>
         <v>3.1063829787234043E-2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <f t="shared" ref="D35:Y35" si="5">(D34-C34)/C34</f>
         <v>0.1724694593479158</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <f t="shared" si="5"/>
         <v>3.186092685276657E-2</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <f t="shared" si="5"/>
         <v>4.7869333736325251E-2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <f t="shared" si="5"/>
         <v>0.48646292815631836</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="21">
         <f t="shared" si="5"/>
         <v>2.3805188988647652</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <f t="shared" si="5"/>
         <v>-4.4345826179909946E-2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <f t="shared" si="5"/>
         <v>0.18941088739746459</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <f t="shared" si="5"/>
         <v>2.9353092049016812E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="21">
         <f t="shared" si="5"/>
         <v>1.4230343300110741E-2</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="21">
         <f t="shared" si="5"/>
         <v>3.2538079379811104E-2</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <f t="shared" si="5"/>
         <v>-7.0480621794532863E-2</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="21">
         <f t="shared" si="5"/>
         <v>3.0915813424345847E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="21">
         <f t="shared" si="5"/>
         <v>6.5467486964438437E-2</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="21">
         <f t="shared" si="5"/>
         <v>3.0372863801139308E-2</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="21">
         <f t="shared" si="5"/>
         <v>2.7039931646269444E-2</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="21">
         <f t="shared" si="5"/>
         <v>2.5593970980449729E-2</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="21">
         <f t="shared" si="5"/>
         <v>3.9675533818442084E-2</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="21">
         <f t="shared" si="5"/>
         <v>2.3498095369223003E-2</v>
       </c>
-      <c r="V35" s="22">
+      <c r="V35" s="21">
         <f t="shared" si="5"/>
         <v>2.6030222859961438E-2</v>
       </c>
-      <c r="W35" s="22">
+      <c r="W35" s="21">
         <f t="shared" si="5"/>
         <v>2.7336494547997289E-2</v>
       </c>
-      <c r="X35" s="22">
+      <c r="X35" s="21">
         <f t="shared" si="5"/>
         <v>1.7824477815118901E-2</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -9786,10 +9802,10 @@
       <c r="Y83" s="1">
         <v>-188073000</v>
       </c>
-      <c r="AF83" s="59" t="s">
+      <c r="AF83" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="AG83" s="60"/>
+      <c r="AG83" s="59"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9867,10 +9883,10 @@
       <c r="Y84" s="1">
         <v>-11240000</v>
       </c>
-      <c r="AF84" s="61" t="s">
+      <c r="AF84" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="AG84" s="62"/>
+      <c r="AG84" s="61"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9948,10 +9964,10 @@
       <c r="Y85" s="1">
         <v>28514000</v>
       </c>
-      <c r="AF85" s="23" t="s">
+      <c r="AF85" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AG85" s="24">
+      <c r="AG85" s="23">
         <f>Y17</f>
         <v>14369000</v>
       </c>
@@ -10032,10 +10048,10 @@
       <c r="Y86" s="1">
         <v>11072000</v>
       </c>
-      <c r="AF86" s="23" t="s">
+      <c r="AF86" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AG86" s="24">
+      <c r="AG86" s="23">
         <f>Y56</f>
         <v>0</v>
       </c>
@@ -10116,10 +10132,10 @@
       <c r="Y87" s="10">
         <v>246674000</v>
       </c>
-      <c r="AF87" s="23" t="s">
+      <c r="AF87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AG87" s="24">
+      <c r="AG87" s="23">
         <f>Y61</f>
         <v>0</v>
       </c>
@@ -10200,10 +10216,10 @@
       <c r="Y88" s="1">
         <v>-58843000</v>
       </c>
-      <c r="AF88" s="33" t="s">
+      <c r="AF88" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AG88" s="34" t="e">
+      <c r="AG88" s="31" t="e">
         <f>AG85/(AG86+AG87)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10308,10 +10324,10 @@
         <f t="shared" si="7"/>
         <v>3.279718284110341E-2</v>
       </c>
-      <c r="AF89" s="23" t="s">
+      <c r="AF89" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="AG89" s="24">
+      <c r="AG89" s="23">
         <f>Y27</f>
         <v>87265000</v>
       </c>
@@ -10392,10 +10408,10 @@
       <c r="Y90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF90" s="23" t="s">
+      <c r="AF90" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AG90" s="24">
+      <c r="AG90" s="23">
         <f>Y25</f>
         <v>524937000</v>
       </c>
@@ -10476,10 +10492,10 @@
       <c r="Y91" s="1">
         <v>-65785000</v>
       </c>
-      <c r="AF91" s="33" t="s">
+      <c r="AF91" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AG91" s="34">
+      <c r="AG91" s="31">
         <f>AG89/AG90</f>
         <v>0.16623899629860345</v>
       </c>
@@ -10560,10 +10576,10 @@
       <c r="Y92" s="1">
         <v>128610000</v>
       </c>
-      <c r="AF92" s="35" t="s">
+      <c r="AF92" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AG92" s="36">
+      <c r="AG92" s="33">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10644,10 +10660,10 @@
       <c r="Y93" s="1">
         <v>-16492000</v>
       </c>
-      <c r="AF93" s="61" t="s">
+      <c r="AF93" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AG93" s="62"/>
+      <c r="AG93" s="61"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10725,10 +10741,10 @@
       <c r="Y94" s="10">
         <v>-12510000</v>
       </c>
-      <c r="AF94" s="23" t="s">
+      <c r="AF94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AG94" s="37">
+      <c r="AG94" s="34">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10808,12 +10824,12 @@
       <c r="Y95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF95" s="23" t="s">
+      <c r="AF95" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AG95" s="38" cm="1">
+      <c r="AG95" s="35" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>1.1389</v>
+        <v>1.1400999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10892,10 +10908,10 @@
       <c r="Y96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF96" s="23" t="s">
+      <c r="AF96" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AG96" s="37">
+      <c r="AG96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10975,12 +10991,12 @@
       <c r="Y97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF97" s="35" t="s">
+      <c r="AF97" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AG97" s="36">
+      <c r="AG97" s="33">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.9979644999999997E-2</v>
+        <v>9.0031305000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11059,10 +11075,10 @@
       <c r="Y98" s="1">
         <v>-137965000</v>
       </c>
-      <c r="AF98" s="61" t="s">
+      <c r="AF98" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="AG98" s="62"/>
+      <c r="AG98" s="61"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11140,10 +11156,10 @@
       <c r="Y99" s="1">
         <v>9180000</v>
       </c>
-      <c r="AF99" s="23" t="s">
+      <c r="AF99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AG99" s="24">
+      <c r="AG99" s="23">
         <f>AG86+AG87</f>
         <v>0</v>
       </c>
@@ -11224,10 +11240,10 @@
       <c r="Y100" s="10">
         <v>-128785000</v>
       </c>
-      <c r="AF100" s="33" t="s">
+      <c r="AF100" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="AG100" s="34">
+      <c r="AG100" s="31">
         <f>AG99/AG103</f>
         <v>0</v>
       </c>
@@ -11308,12 +11324,12 @@
       <c r="Y101" s="1">
         <v>-6039000</v>
       </c>
-      <c r="AF101" s="23" t="s">
+      <c r="AF101" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AG101" s="39" cm="1">
+      <c r="AG101" s="36" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>21902210000</v>
+        <v>23157599360</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11392,10 +11408,10 @@
       <c r="Y102" s="10">
         <v>99340000</v>
       </c>
-      <c r="AF102" s="33" t="s">
+      <c r="AF102" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AG102" s="34">
+      <c r="AG102" s="31">
         <f>AG101/AG103</f>
         <v>1</v>
       </c>
@@ -11476,12 +11492,12 @@
       <c r="Y103" s="1">
         <v>189389000</v>
       </c>
-      <c r="AF103" s="35" t="s">
+      <c r="AF103" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AG103" s="40">
+      <c r="AG103" s="37">
         <f>AG99+AG101</f>
-        <v>21902210000</v>
+        <v>23157599360</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,10 +11576,10 @@
       <c r="Y104" s="11">
         <v>288729000</v>
       </c>
-      <c r="AF104" s="61" t="s">
+      <c r="AF104" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AG104" s="62"/>
+      <c r="AG104" s="61"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11662,18 +11678,28 @@
         <f t="shared" si="8"/>
         <v>-0.16434876230135431</v>
       </c>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
+      <c r="Z105" s="66">
+        <v>567800000</v>
+      </c>
+      <c r="AA105" s="66">
+        <v>628700000</v>
+      </c>
+      <c r="AB105" s="66">
+        <v>687000000</v>
+      </c>
+      <c r="AC105" s="66">
+        <v>897900000</v>
+      </c>
+      <c r="AD105" s="66">
+        <v>986600000</v>
+      </c>
       <c r="AE105" s="15"/>
-      <c r="AF105" s="25" t="s">
+      <c r="AF105" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="AG105" s="26">
+      <c r="AG105" s="25">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.9979644999999997E-2</v>
+        <v>9.0031305000000006E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11752,35 +11778,35 @@
       <c r="Y106" s="1">
         <v>187831000</v>
       </c>
-      <c r="Z106" s="41">
+      <c r="Z106" s="38">
         <f>Y106*(1+$AG$106)</f>
-        <v>215349084.89726725</v>
-      </c>
-      <c r="AA106" s="41">
+        <v>213082765.22307825</v>
+      </c>
+      <c r="AA106" s="38">
         <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
-        <v>246898692.79347083</v>
-      </c>
-      <c r="AB106" s="41">
+        <v>241729346.24802873</v>
+      </c>
+      <c r="AB106" s="38">
         <f t="shared" si="9"/>
-        <v>283070459.91026747</v>
-      </c>
-      <c r="AC106" s="41">
+        <v>274227137.87445575</v>
+      </c>
+      <c r="AC106" s="38">
         <f t="shared" si="9"/>
-        <v>324541553.32785684</v>
-      </c>
-      <c r="AD106" s="41">
+        <v>311093892.04923236</v>
+      </c>
+      <c r="AD106" s="38">
         <f t="shared" si="9"/>
-        <v>372088348.14429796</v>
-      </c>
-      <c r="AE106" s="42" t="s">
+        <v>352916966.64480424</v>
+      </c>
+      <c r="AE106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AF106" s="43" t="s">
+      <c r="AF106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AG106" s="44">
+      <c r="AG106" s="41">
         <f>(SUM(Z4:AD4)/5)</f>
-        <v>0.14650449019207284</v>
+        <v>0.13443875197958924</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11809,139 +11835,139 @@
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="42"/>
-      <c r="AC107" s="42"/>
-      <c r="AD107" s="45">
-        <f>AD106*(1+AG107)/(AG108-AG107)</f>
-        <v>5869385048.9319448</v>
-      </c>
-      <c r="AE107" s="46" t="s">
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="67">
+        <f>AD105*(1+AG107)/(AG108-AG107)</f>
+        <v>15550433748.792212</v>
+      </c>
+      <c r="AE107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AF107" s="47" t="s">
+      <c r="AF107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AG107" s="48">
+      <c r="AG107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="45">
+      <c r="Z108" s="42">
         <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
-        <v>215349084.89726725</v>
-      </c>
-      <c r="AA108" s="45">
+        <v>213082765.22307825</v>
+      </c>
+      <c r="AA108" s="42">
         <f t="shared" si="10"/>
-        <v>246898692.79347083</v>
-      </c>
-      <c r="AB108" s="45">
+        <v>241729346.24802873</v>
+      </c>
+      <c r="AB108" s="42">
         <f t="shared" si="10"/>
-        <v>283070459.91026747</v>
-      </c>
-      <c r="AC108" s="45">
+        <v>274227137.87445575</v>
+      </c>
+      <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>324541553.32785684</v>
-      </c>
-      <c r="AD108" s="45">
-        <f>AD107+AD106</f>
-        <v>6241473397.0762424</v>
-      </c>
-      <c r="AE108" s="46" t="s">
+        <v>311093892.04923236</v>
+      </c>
+      <c r="AD108" s="67">
+        <f>AD107+AD105</f>
+        <v>16537033748.792212</v>
+      </c>
+      <c r="AE108" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AF108" s="49" t="s">
+      <c r="AF108" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="AG108" s="50">
+      <c r="AG108" s="47">
         <f>AG105</f>
-        <v>8.9979644999999997E-2</v>
+        <v>9.0031305000000006E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="63" t="s">
+      <c r="Z109" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="AA109" s="64"/>
+      <c r="AA109" s="57"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="51" t="s">
+      <c r="Z110" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AA110" s="39">
+      <c r="AA110" s="36">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>4910822524.2647285</v>
+        <v>11577421079.9853</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="51" t="s">
+      <c r="Z111" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AA111" s="39">
+      <c r="AA111" s="36">
         <f>Y40</f>
         <v>737873000</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="51" t="s">
+      <c r="Z112" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AA112" s="39">
+      <c r="AA112" s="36">
         <f>AG99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="51" t="s">
+      <c r="Z113" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AA113" s="39">
+      <c r="AA113" s="36">
         <f>AA110+AA111-AA112</f>
-        <v>5648695524.2647285</v>
+        <v>12315294079.9853</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="51" t="s">
+      <c r="Z114" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AA114" s="52">
+      <c r="AA114" s="49">
         <f>Y34*(1+(5*AE16))</f>
         <v>52383071.933422774</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="53" t="s">
+      <c r="Z115" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AA115" s="54">
+      <c r="AA115" s="51">
         <f>AA113/AA114</f>
-        <v>107.83436930625301</v>
+        <v>235.10064655310114</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="51" t="s">
+      <c r="Z116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="AA116" s="55" cm="1">
-        <f t="array" ref="AA116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>449.08</v>
+      <c r="AA116" s="52" cm="1">
+        <f t="array" ref="AA116">_FV(A1,"Price")</f>
+        <v>488.32</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="56" t="s">
+      <c r="Z117" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="AA117" s="57">
+      <c r="AA117" s="54">
         <f>AA115/AA116-1</f>
-        <v>-0.75987715038244186</v>
+        <v>-0.51855208356589699</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="56" t="s">
+      <c r="Z118" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="AA118" s="58" t="str">
+      <c r="AA118" s="55" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Monolithic Power Systems.xlsx
+++ b/Technology/Hardware/Monolithic Power Systems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF6F4FE-2563-4546-983B-797C23917C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D07FBC-DDB5-A94C-A7ED-AD3E4B173F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,6 +1004,20 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,20 +1036,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2404,13 +2404,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>541.39</v>
+    <v>553.64</v>
     <v>301.69</v>
-    <v>1.1400999999999999</v>
-    <v>72.59</v>
-    <v>0.17460899999999999</v>
-    <v>-4.72</v>
-    <v>-9.666000000000001E-3</v>
+    <v>1.1192</v>
+    <v>7.16</v>
+    <v>1.4175999999999999E-2</v>
     <v>USD</v>
     <v>Monolithic Power Systems, Inc. is a fabless company that provides semiconductor-based power electronics solutions. The Company operates through one segment that includes the design, development, marketing and sale of semiconductor-based power electronic solutions for the storage and computing, enterprise data, automotive, industrial, communications and consumer markets. Its product families include Direct Current (DC) to DC Products and Lighting Control Products. Its DC to DC integrated circuits (ICs) are used to convert and control voltages within a range of electronic systems, such as portable electronic devices, wireless LAN access points, computers and notebooks, monitors, infotainment applications and medical equipment. Lighting control ICs are used in backlighting and general illumination products. Lighting control ICs for backlighting are used in systems that provide the light source for liquid crystal display (LCD) panels found in computers, monitors, and others.</v>
     <v>3247</v>
@@ -2418,25 +2416,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5808 Lake Washington Blvd NE, KIRKLAND, WA, 98033-7350 US</v>
-    <v>495</v>
+    <v>516.38469999999995</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45071.994840126565</v>
+    <v>45099.983521330469</v>
     <v>0</v>
-    <v>447</v>
-    <v>23157599360</v>
+    <v>499.91500000000002</v>
+    <v>24291957520</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
-    <v>454.12</v>
-    <v>50.569099999999999</v>
-    <v>415.73</v>
-    <v>488.32</v>
-    <v>483.6</v>
+    <v>500.55</v>
+    <v>53.046199999999999</v>
+    <v>505.08</v>
+    <v>512.24</v>
     <v>47423000</v>
     <v>MPWR</v>
     <v>MONOLITHIC POWER SYSTEMS, INC. (XNAS:MPWR)</v>
-    <v>2121616</v>
-    <v>603054</v>
+    <v>5</v>
+    <v>759853</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2468,8 +2465,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2490,7 +2485,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2507,7 +2501,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2518,16 +2512,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2593,19 +2584,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2650,9 +2635,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2660,9 +2642,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3027,7 +3006,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB97" sqref="AB97"/>
+      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4279,7 +4258,7 @@
         <f>Y22/(Y72+Y56+Y61)</f>
         <v>0.32049943605485309</v>
       </c>
-      <c r="AH13" s="64">
+      <c r="AH13" s="58">
         <f>Y67/Y72</f>
         <v>0.23389819741316384</v>
       </c>
@@ -4530,17 +4509,17 @@
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>1.8937858118460126E-2</v>
       </c>
-      <c r="AF16" s="62">
+      <c r="AF16" s="56">
         <f>AG101/Y3</f>
-        <v>12.907296031319602</v>
-      </c>
-      <c r="AG16" s="62">
+        <v>13.539550538751541</v>
+      </c>
+      <c r="AG16" s="56">
         <f>AG101/Y28</f>
-        <v>52.91085415562339</v>
-      </c>
-      <c r="AH16" s="63">
+        <v>55.502653859511234</v>
+      </c>
+      <c r="AH16" s="57">
         <f>AG101/Y106</f>
-        <v>123.28954943539671</v>
+        <v>129.32879833467319</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4783,9 +4762,9 @@
         <f>Y40-Y56-Y61</f>
         <v>737873000</v>
       </c>
-      <c r="AF19" s="65">
+      <c r="AF19" s="59">
         <f>AG101/Z3</f>
-        <v>12.640611004366813</v>
+        <v>13.259802139737991</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9802,10 +9781,10 @@
       <c r="Y83" s="1">
         <v>-188073000</v>
       </c>
-      <c r="AF83" s="58" t="s">
+      <c r="AF83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AG83" s="59"/>
+      <c r="AG83" s="65"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9883,10 +9862,10 @@
       <c r="Y84" s="1">
         <v>-11240000</v>
       </c>
-      <c r="AF84" s="60" t="s">
+      <c r="AF84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AG84" s="61"/>
+      <c r="AG84" s="67"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10660,10 +10639,10 @@
       <c r="Y93" s="1">
         <v>-16492000</v>
       </c>
-      <c r="AF93" s="60" t="s">
+      <c r="AF93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AG93" s="61"/>
+      <c r="AG93" s="67"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10829,7 +10808,7 @@
       </c>
       <c r="AG95" s="35" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>1.1400999999999999</v>
+        <v>1.1192</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10996,7 +10975,7 @@
       </c>
       <c r="AG97" s="33">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>9.0031305000000006E-2</v>
+        <v>8.9131559999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11075,10 +11054,10 @@
       <c r="Y98" s="1">
         <v>-137965000</v>
       </c>
-      <c r="AF98" s="60" t="s">
+      <c r="AF98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AG98" s="61"/>
+      <c r="AG98" s="67"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11329,7 +11308,7 @@
       </c>
       <c r="AG101" s="36" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23157599360</v>
+        <v>24291957520</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11497,7 +11476,7 @@
       </c>
       <c r="AG103" s="37">
         <f>AG99+AG101</f>
-        <v>23157599360</v>
+        <v>24291957520</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11576,10 +11555,10 @@
       <c r="Y104" s="11">
         <v>288729000</v>
       </c>
-      <c r="AF104" s="60" t="s">
+      <c r="AF104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AG104" s="61"/>
+      <c r="AG104" s="67"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11678,19 +11657,19 @@
         <f t="shared" si="8"/>
         <v>-0.16434876230135431</v>
       </c>
-      <c r="Z105" s="66">
+      <c r="Z105" s="60">
         <v>567800000</v>
       </c>
-      <c r="AA105" s="66">
+      <c r="AA105" s="60">
         <v>628700000</v>
       </c>
-      <c r="AB105" s="66">
+      <c r="AB105" s="60">
         <v>687000000</v>
       </c>
-      <c r="AC105" s="66">
+      <c r="AC105" s="60">
         <v>897900000</v>
       </c>
-      <c r="AD105" s="66">
+      <c r="AD105" s="60">
         <v>986600000</v>
       </c>
       <c r="AE105" s="15"/>
@@ -11699,7 +11678,7 @@
       </c>
       <c r="AG105" s="25">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>9.0031305000000006E-2</v>
+        <v>8.9131559999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11839,9 +11818,9 @@
       <c r="AA107" s="39"/>
       <c r="AB107" s="39"/>
       <c r="AC107" s="39"/>
-      <c r="AD107" s="67">
+      <c r="AD107" s="61">
         <f>AD105*(1+AG107)/(AG108-AG107)</f>
-        <v>15550433748.792212</v>
+        <v>15768601293.96509</v>
       </c>
       <c r="AE107" s="43" t="s">
         <v>148</v>
@@ -11870,9 +11849,9 @@
         <f>AC107+AC106</f>
         <v>311093892.04923236</v>
       </c>
-      <c r="AD108" s="67">
+      <c r="AD108" s="61">
         <f>AD107+AD105</f>
-        <v>16537033748.792212</v>
+        <v>16755201293.96509</v>
       </c>
       <c r="AE108" s="43" t="s">
         <v>144</v>
@@ -11882,14 +11861,14 @@
       </c>
       <c r="AG108" s="47">
         <f>AG105</f>
-        <v>9.0031305000000006E-2</v>
+        <v>8.9131559999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="56" t="s">
+      <c r="Z109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AA109" s="57"/>
+      <c r="AA109" s="63"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="Z110" s="48" t="s">
@@ -11897,7 +11876,7 @@
       </c>
       <c r="AA110" s="36">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>11577421079.9853</v>
+        <v>11765995302.418386</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11924,7 +11903,7 @@
       </c>
       <c r="AA113" s="36">
         <f>AA110+AA111-AA112</f>
-        <v>12315294079.9853</v>
+        <v>12503868302.418386</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11942,7 +11921,7 @@
       </c>
       <c r="AA115" s="51">
         <f>AA113/AA114</f>
-        <v>235.10064655310114</v>
+        <v>238.70055422313544</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11951,7 +11930,7 @@
       </c>
       <c r="AA116" s="52" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>488.32</v>
+        <v>512.24</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
@@ -11960,7 +11939,7 @@
       </c>
       <c r="AA117" s="54">
         <f>AA115/AA116-1</f>
-        <v>-0.51855208356589699</v>
+        <v>-0.5340064145261294</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Monolithic Power Systems.xlsx
+++ b/Technology/Hardware/Monolithic Power Systems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D07FBC-DDB5-A94C-A7ED-AD3E4B173F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFE5A8-AA52-F746-9A9B-A0104B35A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="166">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -553,19 +547,41 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -728,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -834,62 +850,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -897,7 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -936,75 +899,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1018,23 +927,67 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,11 +1360,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1451,7 +1404,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Y$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Y$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2406,9 +2359,9 @@
     <v>Powered by Refinitiv</v>
     <v>553.64</v>
     <v>301.69</v>
-    <v>1.1192</v>
-    <v>7.16</v>
-    <v>1.4175999999999999E-2</v>
+    <v>1.1265000000000001</v>
+    <v>9.5299999999999994</v>
+    <v>1.8109E-2</v>
     <v>USD</v>
     <v>Monolithic Power Systems, Inc. is a fabless company that provides semiconductor-based power electronics solutions. The Company operates through one segment that includes the design, development, marketing and sale of semiconductor-based power electronic solutions for the storage and computing, enterprise data, automotive, industrial, communications and consumer markets. Its product families include Direct Current (DC) to DC Products and Lighting Control Products. Its DC to DC integrated circuits (ICs) are used to convert and control voltages within a range of electronic systems, such as portable electronic devices, wireless LAN access points, computers and notebooks, monitors, infotainment applications and medical equipment. Lighting control ICs are used in backlighting and general illumination products. Lighting control ICs for backlighting are used in systems that provide the light source for liquid crystal display (LCD) panels found in computers, monitors, and others.</v>
     <v>3247</v>
@@ -2416,24 +2369,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5808 Lake Washington Blvd NE, KIRKLAND, WA, 98033-7350 US</v>
-    <v>516.38469999999995</v>
+    <v>536.77</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.983521330469</v>
+    <v>45106.932149270309</v>
     <v>0</v>
-    <v>499.91500000000002</v>
-    <v>24291957520</v>
+    <v>524.22</v>
+    <v>25004720000</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
-    <v>500.55</v>
-    <v>53.046199999999999</v>
-    <v>505.08</v>
-    <v>512.24</v>
+    <v>532.25</v>
+    <v>55.485999999999997</v>
+    <v>526.27</v>
+    <v>535.79999999999995</v>
     <v>47423000</v>
     <v>MPWR</v>
     <v>MONOLITHIC POWER SYSTEMS, INC. (XNAS:MPWR)</v>
-    <v>5</v>
-    <v>759853</v>
+    <v>399063</v>
+    <v>725349</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -3003,10 +2956,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z99" sqref="Z99"/>
+      <selection pane="bottomRight" activeCell="AA99" sqref="AA99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3092,19 +3045,19 @@
       <c r="Y1" s="8">
         <v>2022</v>
       </c>
-      <c r="Z1" s="26">
+      <c r="Z1" s="22">
         <v>2023</v>
       </c>
-      <c r="AA1" s="26">
+      <c r="AA1" s="22">
         <v>2024</v>
       </c>
-      <c r="AB1" s="26">
+      <c r="AB1" s="22">
         <v>2025</v>
       </c>
-      <c r="AC1" s="26">
+      <c r="AC1" s="22">
         <v>2026</v>
       </c>
-      <c r="AD1" s="26">
+      <c r="AD1" s="22">
         <v>2027</v>
       </c>
     </row>
@@ -3113,85 +3066,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
@@ -3276,37 +3229,37 @@
       <c r="Y3" s="1">
         <v>1794148000</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="23">
         <v>1832000000</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="23">
         <v>2152000000</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="23">
         <v>2642000000</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="23">
         <v>2808000000</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="23">
         <v>3330000000</v>
       </c>
       <c r="AE3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3434,7 +3387,7 @@
         <v>0.59701055101242206</v>
       </c>
       <c r="AH4" s="17">
-        <f>(Y105+X105+W105)/3</f>
+        <f>(Y106+X106+W106)/3</f>
         <v>0.2234234148423756</v>
       </c>
     </row>
@@ -3592,16 +3545,16 @@
         <v>1048552000</v>
       </c>
       <c r="AE6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -3693,7 +3646,7 @@
         <v>0.24390000000000001</v>
       </c>
       <c r="AH7" s="20">
-        <f>Y106/Y3</f>
+        <f>Y107/Y3</f>
         <v>0.10469091736021778</v>
       </c>
     </row>
@@ -3776,7 +3729,7 @@
     </row>
     <row r="9" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3875,16 +3828,16 @@
         <v>0.13386353857095401</v>
       </c>
       <c r="AE9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -3898,7 +3851,7 @@
         <v>1102000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1">
         <v>4209946</v>
@@ -3952,16 +3905,16 @@
         <v>113803000</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="17">
         <f>Y9</f>
@@ -3985,76 +3938,76 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -4068,7 +4021,7 @@
         <v>1102000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>4209946</v>
@@ -4134,21 +4087,21 @@
         <v>273595000</v>
       </c>
       <c r="AE12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4258,7 +4211,7 @@
         <f>Y22/(Y72+Y56+Y61)</f>
         <v>0.32049943605485309</v>
       </c>
-      <c r="AH13" s="58">
+      <c r="AH13" s="32">
         <f>Y67/Y72</f>
         <v>0.23389819741316384</v>
       </c>
@@ -4268,25 +4221,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>494000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>15778000</v>
@@ -4295,49 +4248,49 @@
         <v>18674000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -4417,16 +4370,16 @@
         <v>513766000</v>
       </c>
       <c r="AE15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -4505,53 +4458,53 @@
       <c r="Y16" s="1">
         <v>1259362000</v>
       </c>
-      <c r="AE16" s="28">
+      <c r="AE16" s="24">
         <f>(Y35+X35+W35+V35+U35)/5</f>
         <v>1.8937858118460126E-2</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="30">
         <f>AG101/Y3</f>
-        <v>13.539550538751541</v>
-      </c>
-      <c r="AG16" s="56">
+        <v>13.936821265581212</v>
+      </c>
+      <c r="AG16" s="30">
         <f>AG101/Y28</f>
-        <v>55.502653859511234</v>
-      </c>
-      <c r="AH16" s="57">
-        <f>AG101/Y106</f>
-        <v>129.32879833467319</v>
+        <v>57.13118499698404</v>
+      </c>
+      <c r="AH16" s="31">
+        <f>AG101/Y107</f>
+        <v>133.12349931587437</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>652000</v>
@@ -4566,25 +4519,25 @@
         <v>362000</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1">
         <v>7305000</v>
@@ -4599,15 +4552,15 @@
         <v>14369000</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>300000</v>
@@ -4676,13 +4629,19 @@
         <v>37144000</v>
       </c>
       <c r="AE18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4758,18 +4717,41 @@
       <c r="Y19" s="10">
         <v>524937000</v>
       </c>
-      <c r="AE19" s="29">
+      <c r="Z19" s="10">
+        <v>524937001</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>524937002</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>524937003</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>524937004</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>524937005</v>
+      </c>
+      <c r="AE19" s="25">
         <f>Y40-Y56-Y61</f>
         <v>737873000</v>
       </c>
-      <c r="AF19" s="59">
+      <c r="AF19" s="33">
         <f>AG101/Z3</f>
-        <v>13.259802139737991</v>
+        <v>13.648864628820961</v>
+      </c>
+      <c r="AG19" s="30">
+        <f>AG102/Z28</f>
+        <v>2.2848160213931529E-9</v>
+      </c>
+      <c r="AH19" s="31" t="e">
+        <f>AG102/Z107</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4864,8 +4846,28 @@
         <f t="shared" si="3"/>
         <v>0.67950280750587888</v>
       </c>
+      <c r="Z20" s="15">
+        <f t="shared" ref="Z20" si="4">(Z19/Y19)-1</f>
+        <v>1.904990609702395E-9</v>
+      </c>
+      <c r="AA20" s="15">
+        <f t="shared" ref="AA20" si="5">(AA19/Z19)-1</f>
+        <v>1.904990609702395E-9</v>
+      </c>
+      <c r="AB20" s="15">
+        <f t="shared" ref="AB20" si="6">(AB19/AA19)-1</f>
+        <v>1.9049903876577901E-9</v>
+      </c>
+      <c r="AC20" s="15">
+        <f t="shared" ref="AC20" si="7">(AC19/AB19)-1</f>
+        <v>1.9049903876577901E-9</v>
+      </c>
+      <c r="AD20" s="15">
+        <f t="shared" ref="AD20" si="8">(AD19/AC19)-1</f>
+        <v>1.9049903876577901E-9</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4941,8 +4943,29 @@
       <c r="Y21" s="2">
         <v>0.29260000000000003</v>
       </c>
+      <c r="Z21" s="2">
+        <v>1.2926</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>2.2926000000000002</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>3.2926000000000002</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>4.2926000000000002</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>5.2926000000000002</v>
+      </c>
+      <c r="AG21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5018,8 +5041,16 @@
       <c r="Y22" s="10">
         <v>534786000</v>
       </c>
+      <c r="AG22" s="36">
+        <f>Y99/AG102</f>
+        <v>9180000</v>
+      </c>
+      <c r="AH22" s="37">
+        <f>Y108/AG102</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5096,24 +5127,24 @@
         <v>0.29809999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>29000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1">
         <v>77720</v>
@@ -5173,7 +5204,7 @@
         <v>-9849000</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5184,13 +5215,13 @@
         <v>-1603000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="10">
         <v>-5452025</v>
@@ -5250,7 +5281,7 @@
         <v>524937000</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5261,13 +5292,13 @@
         <v>-0.30520000000000003</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="2">
         <v>-0.11459999999999999</v>
@@ -5327,24 +5358,24 @@
         <v>0.29260000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1">
         <v>-1001000</v>
@@ -5404,7 +5435,7 @@
         <v>87265000</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5480,10 +5511,25 @@
       <c r="Y28" s="11">
         <v>437672000</v>
       </c>
+      <c r="Z28" s="11">
+        <v>437672001</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>437672002</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>437672003</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>437672004</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>437672005</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5499,87 +5545,107 @@
         <v>-9.3790158044428695E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Y29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Y29" si="9">(F28/E28)-1</f>
         <v>-6.2182628227462455E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.46598061398915092</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-2.1473761661639736</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-1.5606030937928335</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-4.2451973454418441</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.607469594230976</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.18789730042103525</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.50264308224052057</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-0.55007949125596189</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.1845725885271785</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.45328763645595327</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.55013538300288234</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-9.0998732215804568E-3</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.49891959513249184</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.23677921092564502</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.61446559207398432</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3.3922939544780872E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.51025827139168856</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.47238326996197721</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.80839011168360031</v>
       </c>
+      <c r="Z29" s="15">
+        <f t="shared" ref="Z29" si="10">(Z28/Y28)-1</f>
+        <v>2.2848161140842649E-9</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" ref="AA29" si="11">(AA28/Z28)-1</f>
+        <v>2.2848161140842649E-9</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" ref="AB29" si="12">(AB28/AA28)-1</f>
+        <v>2.2848161140842649E-9</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" ref="AC29" si="13">(AC28/AB28)-1</f>
+        <v>2.2848161140842649E-9</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" ref="AD29" si="14">(AD28/AC28)-1</f>
+        <v>2.2848161140842649E-9</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5655,8 +5721,23 @@
       <c r="Y30" s="2">
         <v>0.24390000000000001</v>
       </c>
+      <c r="Z30" s="2">
+        <v>1.2439</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>2.2439</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>3.2439</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>4.2439</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>5.2439</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5732,8 +5813,23 @@
       <c r="Y31" s="12">
         <v>9.52</v>
       </c>
+      <c r="Z31" s="12">
+        <v>10.52</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>11.52</v>
+      </c>
+      <c r="AB31" s="12">
+        <v>12.52</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>13.52</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>14.52</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5966,7 +6062,7 @@
     </row>
     <row r="35" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="21">
@@ -5974,91 +6070,91 @@
         <v>3.1063829787234043E-2</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" ref="D35:Y35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Y35" si="15">(D34-C34)/C34</f>
         <v>0.1724694593479158</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.186092685276657E-2</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.7869333736325251E-2</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.48646292815631836</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.3805188988647652</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.4345826179909946E-2</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.18941088739746459</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9353092049016812E-2</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4230343300110741E-2</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.2538079379811104E-2</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.0480621794532863E-2</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.0915813424345847E-2</v>
       </c>
       <c r="P35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>6.5467486964438437E-2</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.0372863801139308E-2</v>
       </c>
       <c r="R35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.7039931646269444E-2</v>
       </c>
       <c r="S35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.5593970980449729E-2</v>
       </c>
       <c r="T35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.9675533818442084E-2</v>
       </c>
       <c r="U35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.3498095369223003E-2</v>
       </c>
       <c r="V35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.6030222859961438E-2</v>
       </c>
       <c r="W35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.7336494547997289E-2</v>
       </c>
       <c r="X35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.7824477815118901E-2</v>
       </c>
       <c r="Y35" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6067,76 +6163,76 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="21" x14ac:dyDescent="0.25">
@@ -6144,76 +6240,76 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -6221,10 +6317,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>904000</v>
@@ -6298,16 +6394,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>1007190</v>
@@ -6375,10 +6471,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>904000</v>
@@ -6452,13 +6548,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>1315033</v>
@@ -6529,13 +6625,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>1267092</v>
@@ -6606,13 +6702,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>263858</v>
@@ -6683,13 +6779,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>20069477</v>
@@ -6760,13 +6856,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>1467936</v>
@@ -6837,49 +6933,49 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>6571000</v>
@@ -6914,49 +7010,49 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1">
         <v>6812000</v>
@@ -6974,16 +7070,16 @@
         <v>111000</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -6991,49 +7087,49 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1">
         <v>13383000</v>
@@ -7068,31 +7164,31 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1">
         <v>37425000</v>
@@ -7134,10 +7230,10 @@
         <v>6261000</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7145,28 +7241,28 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1">
         <v>657569</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
         <v>759000</v>
@@ -7222,13 +7318,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>76834</v>
@@ -7299,13 +7395,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>1544770</v>
@@ -7376,76 +7472,76 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1">
         <v>4346000</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7453,10 +7549,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>4346000</v>
@@ -7530,13 +7626,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>1590906</v>
@@ -7607,64 +7703,64 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1">
         <v>1254000</v>
@@ -7673,7 +7769,7 @@
         <v>1406000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -7684,64 +7780,64 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1">
         <v>2435000</v>
@@ -7750,10 +7846,10 @@
         <v>3755000</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7761,28 +7857,28 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1">
         <v>1306000</v>
@@ -7791,13 +7887,13 @@
         <v>841000</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1">
         <v>2198000</v>
@@ -7830,7 +7926,7 @@
         <v>4300000</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -7838,13 +7934,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>910820</v>
@@ -7915,13 +8011,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>2501726</v>
@@ -7992,64 +8088,64 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1">
         <v>1103000</v>
@@ -8058,7 +8154,7 @@
         <v>1693000</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1">
         <v>0</v>
@@ -8069,76 +8165,76 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8146,31 +8242,31 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>131000</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>4762000</v>
@@ -8182,13 +8278,13 @@
         <v>5015000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1">
         <v>5876000</v>
@@ -8197,25 +8293,25 @@
         <v>2941000</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8223,13 +8319,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>17133051</v>
@@ -8300,13 +8396,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>17133051</v>
@@ -8377,76 +8473,76 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1">
         <v>2649000</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8454,10 +8550,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>2649000</v>
@@ -8531,13 +8627,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>2092256</v>
@@ -8608,13 +8704,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-10679595</v>
@@ -8685,13 +8781,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-1161000</v>
@@ -8762,10 +8858,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>1697000</v>
@@ -8822,16 +8918,16 @@
         <v>457000</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -8839,10 +8935,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>1697000</v>
@@ -8916,10 +9012,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>4346000</v>
@@ -8993,76 +9089,76 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="21" x14ac:dyDescent="0.25">
@@ -9070,76 +9166,76 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -9147,10 +9243,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>-3572603</v>
@@ -9224,10 +9320,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>300000</v>
@@ -9301,19 +9397,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1">
         <v>-1464253</v>
@@ -9378,31 +9474,31 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1">
         <v>13158000</v>
@@ -9452,102 +9548,102 @@
     </row>
     <row r="80" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Y80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="16">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.19756901396166E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.854722195287501E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.6814110765856328E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6.6792523878098295E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.723510731340002E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.6945747634307888E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.11840656909763392</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.12478870617623482</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.11575264044871547</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.11173021835563322</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.10406743340281809</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.12533264534869831</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.10130948828352589</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.10223481078789665</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.9731727817326107E-2</v>
       </c>
     </row>
@@ -9556,10 +9652,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>500000</v>
@@ -9633,31 +9729,31 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1">
         <v>-876000</v>
@@ -9710,13 +9806,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-700505</v>
@@ -9781,41 +9877,41 @@
       <c r="Y83" s="1">
         <v>-188073000</v>
       </c>
-      <c r="AF83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG83" s="65"/>
+      <c r="AF83" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG83" s="40"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>-1382000</v>
@@ -9862,23 +9958,23 @@
       <c r="Y84" s="1">
         <v>-11240000</v>
       </c>
-      <c r="AF84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG84" s="67"/>
+      <c r="AF84" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG84" s="41"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>17567751</v>
@@ -9943,10 +10039,10 @@
       <c r="Y85" s="1">
         <v>28514000</v>
       </c>
-      <c r="AF85" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG85" s="23">
+      <c r="AF85" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG85" s="43">
         <f>Y17</f>
         <v>14369000</v>
       </c>
@@ -9956,10 +10052,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>372603</v>
@@ -9968,7 +10064,7 @@
         <v>4365</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1">
         <v>60686</v>
@@ -10027,10 +10123,10 @@
       <c r="Y86" s="1">
         <v>11072000</v>
       </c>
-      <c r="AF86" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG86" s="23">
+      <c r="AF86" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG86" s="43">
         <f>Y56</f>
         <v>0</v>
       </c>
@@ -10040,10 +10136,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>-2400000</v>
@@ -10111,10 +10207,10 @@
       <c r="Y87" s="10">
         <v>246674000</v>
       </c>
-      <c r="AF87" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG87" s="23">
+      <c r="AF87" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG87" s="43">
         <f>Y61</f>
         <v>0</v>
       </c>
@@ -10124,10 +10220,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-500000</v>
@@ -10195,118 +10291,118 @@
       <c r="Y88" s="1">
         <v>-58843000</v>
       </c>
-      <c r="AF88" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG88" s="31" t="e">
+      <c r="AF88" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG88" s="45" t="e">
         <f>AG85/(AG86+AG87)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:Y89" si="17">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.1497929672197582E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="17"/>
+        <v>8.803630398863603E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.7522956945184731E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.7626333912658418E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="17"/>
+        <v>1.8944628824484774E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="17"/>
+        <v>7.1170785125934388E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="17"/>
+        <v>4.9647771708307212E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="17"/>
+        <v>3.2602126957030984E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.0324347910404343E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="17"/>
+        <v>0.10408974593310182</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="17"/>
+        <v>0.10697184496155589</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="17"/>
+        <v>9.8492608026640102E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.6209978537617967E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="17"/>
+        <v>3.3663085989346454E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="17"/>
+        <v>4.8110440241753163E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="17"/>
+        <v>9.548582969909819E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="17"/>
+        <v>0.13966648900365022</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="17"/>
+        <v>3.8679080053985182E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="17"/>
+        <v>0.15413881682568348</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="17"/>
+        <v>6.5887699952158318E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="17"/>
+        <v>7.8196022844879684E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="17"/>
+        <v>3.279718284110341E-2</v>
+      </c>
+      <c r="AF89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Y89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1497929672197582E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.803630398863603E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7522956945184731E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7626333912658418E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8944628824484774E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.1170785125934388E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9647771708307212E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2602126957030984E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0324347910404343E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10408974593310182</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10697184496155589</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.8492608026640102E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.6209978537617967E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3663085989346454E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.8110440241753163E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.548582969909819E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13966648900365022</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8679080053985182E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15413881682568348</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.5887699952158318E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.8196022844879684E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.279718284110341E-2</v>
-      </c>
-      <c r="AF89" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG89" s="23">
+      <c r="AG89" s="43">
         <f>Y27</f>
         <v>87265000</v>
       </c>
@@ -10316,81 +10412,81 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-11590000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF90" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AG90" s="23">
+      <c r="AG90" s="43">
         <f>Y25</f>
         <v>524937000</v>
       </c>
@@ -10400,16 +10496,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-3503930</v>
@@ -10471,10 +10567,10 @@
       <c r="Y91" s="1">
         <v>-65785000</v>
       </c>
-      <c r="AF91" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG91" s="31">
+      <c r="AF91" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG91" s="45">
         <f>AG89/AG90</f>
         <v>0.16623899629860345</v>
       </c>
@@ -10484,16 +10580,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>2490642</v>
@@ -10555,10 +10651,10 @@
       <c r="Y92" s="1">
         <v>128610000</v>
       </c>
-      <c r="AF92" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG92" s="33">
+      <c r="AF92" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG92" s="45">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10568,19 +10664,19 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1">
         <v>34200</v>
@@ -10604,7 +10700,7 @@
         <v>-19000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1">
         <v>33000</v>
@@ -10639,20 +10735,20 @@
       <c r="Y93" s="1">
         <v>-16492000</v>
       </c>
-      <c r="AF93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG93" s="67"/>
+      <c r="AF93" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG93" s="41"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-500000</v>
@@ -10720,10 +10816,10 @@
       <c r="Y94" s="10">
         <v>-12510000</v>
       </c>
-      <c r="AF94" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG94" s="34">
+      <c r="AF94" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG94" s="46">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10732,83 +10828,83 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF95" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG95" s="35" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AF95" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG95" s="47" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>1.1192</v>
+        <v>1.1265000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10816,16 +10912,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>481584</v>
@@ -10861,36 +10957,36 @@
         <v>37877000</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF96" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG96" s="34">
+        <v>91</v>
+      </c>
+      <c r="AF96" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10899,37 +10995,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>4900000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-25043000</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-31527000</v>
@@ -10938,7 +11034,7 @@
         <v>-38472000</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-20615000</v>
@@ -10950,32 +11046,32 @@
         <v>-32286000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF97" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG97" s="33">
+        <v>91</v>
+      </c>
+      <c r="AF97" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG97" s="45">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.9131559999999999E-2</v>
+        <v>8.9445825000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10983,49 +11079,49 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1">
         <v>-35664000</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1">
         <v>-11658000</v>
@@ -11054,20 +11150,20 @@
       <c r="Y98" s="1">
         <v>-137965000</v>
       </c>
-      <c r="AF98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG98" s="67"/>
+      <c r="AF98" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG98" s="41"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>2300000</v>
@@ -11079,7 +11175,7 @@
         <v>23000</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1">
         <v>-8000</v>
@@ -11135,10 +11231,10 @@
       <c r="Y99" s="1">
         <v>9180000</v>
       </c>
-      <c r="AF99" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG99" s="23">
+      <c r="AF99" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG99" s="43">
         <f>AG86+AG87</f>
         <v>0</v>
       </c>
@@ -11148,10 +11244,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>7200000</v>
@@ -11219,10 +11315,10 @@
       <c r="Y100" s="10">
         <v>-128785000</v>
       </c>
-      <c r="AF100" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG100" s="31">
+      <c r="AF100" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG100" s="45">
         <f>AG99/AG103</f>
         <v>0</v>
       </c>
@@ -11232,16 +11328,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>7783</v>
@@ -11303,12 +11399,12 @@
       <c r="Y101" s="1">
         <v>-6039000</v>
       </c>
-      <c r="AF101" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG101" s="36" cm="1">
+      <c r="AF101" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG101" s="48" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>24291957520</v>
+        <v>25004720000</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11316,10 +11412,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>4400000</v>
@@ -11387,10 +11483,10 @@
       <c r="Y102" s="10">
         <v>99340000</v>
       </c>
-      <c r="AF102" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG102" s="31">
+      <c r="AF102" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG102" s="45">
         <f>AG101/AG103</f>
         <v>1</v>
       </c>
@@ -11400,10 +11496,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>172704000</v>
@@ -11471,12 +11567,12 @@
       <c r="Y103" s="1">
         <v>189389000</v>
       </c>
-      <c r="AF103" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG103" s="37">
+      <c r="AF103" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG103" s="49">
         <f>AG99+AG101</f>
-        <v>24291957520</v>
+        <v>25004720000</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11484,10 +11580,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>177104000</v>
@@ -11555,398 +11651,380 @@
       <c r="Y104" s="11">
         <v>288729000</v>
       </c>
-      <c r="AF104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG104" s="67"/>
+      <c r="AF104" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG104" s="41"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.18185896551724134</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.3383836276631409</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.97719375195654656</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Y105" si="8">(H106/G106)-1</f>
-        <v>-147.56457903188806</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.71662427444074872</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.071576524741082</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.94206093493866927</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.37421777221526908</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19604651162790687</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.118685592066887</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.82998720381238145</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>10.658967038671165</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.43853791015538035</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.1688279533285878</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3157953529937445</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.7156521493052597E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.74766341406066306</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.9695186041622819E-3</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.77519327956089557</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.9425727267585549E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.16434876230135431</v>
-      </c>
-      <c r="Z105" s="60">
+        <v>163</v>
+      </c>
+      <c r="Y105" s="1">
+        <f>(Y21*(1-$AC$92))+Y77+Y88+Y81</f>
+        <v>-408684999.70740002</v>
+      </c>
+      <c r="Z105" s="34">
         <v>567800000</v>
       </c>
-      <c r="AA105" s="60">
+      <c r="AA105" s="34">
         <v>628700000</v>
       </c>
-      <c r="AB105" s="60">
+      <c r="AB105" s="34">
         <v>687000000</v>
       </c>
-      <c r="AC105" s="60">
+      <c r="AC105" s="34">
         <v>897900000</v>
       </c>
-      <c r="AD105" s="60">
+      <c r="AD105" s="34">
         <v>986600000</v>
       </c>
       <c r="AE105" s="15"/>
-      <c r="AF105" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG105" s="25">
+      <c r="AF105" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG105" s="51">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.9131559999999999E-2</v>
+        <v>8.9445825000000007E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-2900000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-3427391</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-4587164</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-104616</v>
-      </c>
-      <c r="H106" s="1">
-        <v>15333000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>4345000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>17691000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>34357000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>21500000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>25715000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>22663000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>3853000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>44922000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>64622000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>53712000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>70674000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>68048000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>118925000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>119516000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>212164000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>224772000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>187831000</v>
-      </c>
-      <c r="Z106" s="38">
-        <f>Y106*(1+$AG$106)</f>
+      <c r="A106" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.18185896551724134</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.3383836276631409</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.97719375195654656</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-147.56457903188806</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-0.71662427444074872</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>3.071576524741082</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.94206093493866927</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.37421777221526908</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.19604651162790687</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.118685592066887</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.82998720381238145</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>10.658967038671165</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.43853791015538035</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.1688279533285878</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.3157953529937445</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-3.7156521493052597E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.74766341406066306</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>4.9695186041622819E-3</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.77519327956089557</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>5.9425727267585549E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-0.16434876230135431</v>
+      </c>
+      <c r="Z106" s="26">
+        <f>Y107*(1+$AG$106)</f>
         <v>213082765.22307825</v>
       </c>
-      <c r="AA106" s="38">
-        <f t="shared" ref="AA106:AD106" si="9">Z106*(1+$AG$106)</f>
+      <c r="AA106" s="26">
+        <f t="shared" ref="AA106:AD106" si="18">Z106*(1+$AG$106)</f>
         <v>241729346.24802873</v>
       </c>
-      <c r="AB106" s="38">
-        <f t="shared" si="9"/>
+      <c r="AB106" s="26">
+        <f t="shared" si="18"/>
         <v>274227137.87445575</v>
       </c>
-      <c r="AC106" s="38">
-        <f t="shared" si="9"/>
+      <c r="AC106" s="26">
+        <f t="shared" si="18"/>
         <v>311093892.04923236</v>
       </c>
-      <c r="AD106" s="38">
-        <f t="shared" si="9"/>
+      <c r="AD106" s="26">
+        <f t="shared" si="18"/>
         <v>352916966.64480424</v>
       </c>
-      <c r="AE106" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF106" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG106" s="41">
+      <c r="AE106" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF106" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG106" s="53">
         <f>(SUM(Z4:AD4)/5)</f>
         <v>0.13443875197958924</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="61">
+      <c r="A107" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-2900000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-3427391</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-4587164</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-104616</v>
+      </c>
+      <c r="H107" s="1">
+        <v>15333000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>4345000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>17691000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>34357000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>21500000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>25715000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>22663000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>3853000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>44922000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>64622000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>53712000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>70674000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>68048000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>118925000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>119516000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>212164000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>224772000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>187831000</v>
+      </c>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="35">
         <f>AD105*(1+AG107)/(AG108-AG107)</f>
-        <v>15768601293.96509</v>
-      </c>
-      <c r="AE107" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF107" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG107" s="45">
+        <v>15691706949.208885</v>
+      </c>
+      <c r="AE107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF107" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="42">
-        <f t="shared" ref="Z108:AB108" si="10">Z107+Z106</f>
+      <c r="Z108" s="28">
+        <f t="shared" ref="Z108:AB108" si="19">Z107+Z106</f>
         <v>213082765.22307825</v>
       </c>
-      <c r="AA108" s="42">
-        <f t="shared" si="10"/>
+      <c r="AA108" s="28">
+        <f t="shared" si="19"/>
         <v>241729346.24802873</v>
       </c>
-      <c r="AB108" s="42">
-        <f t="shared" si="10"/>
+      <c r="AB108" s="28">
+        <f t="shared" si="19"/>
         <v>274227137.87445575</v>
       </c>
-      <c r="AC108" s="42">
+      <c r="AC108" s="28">
         <f>AC107+AC106</f>
         <v>311093892.04923236</v>
       </c>
-      <c r="AD108" s="61">
+      <c r="AD108" s="35">
         <f>AD107+AD105</f>
-        <v>16755201293.96509</v>
-      </c>
-      <c r="AE108" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF108" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG108" s="47">
+        <v>16678306949.208885</v>
+      </c>
+      <c r="AE108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF108" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG108" s="53">
         <f>AG105</f>
-        <v>8.9131559999999999E-2</v>
+        <v>8.9445825000000007E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA109" s="63"/>
+      <c r="Z109" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA109" s="57"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA110" s="36">
+      <c r="Z110" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA110" s="48">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>11765995302.418386</v>
+        <v>11699519342.745905</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA111" s="36">
+      <c r="Z111" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA111" s="48">
         <f>Y40</f>
         <v>737873000</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA112" s="36">
+      <c r="Z112" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA112" s="48">
         <f>AG99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA113" s="36">
+      <c r="Z113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA113" s="48">
         <f>AA110+AA111-AA112</f>
-        <v>12503868302.418386</v>
+        <v>12437392342.745905</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA114" s="49">
+      <c r="Z114" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA114" s="58">
         <f>Y34*(1+(5*AE16))</f>
         <v>52383071.933422774</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA115" s="51">
+      <c r="Z115" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA115" s="60">
         <f>AA113/AA114</f>
-        <v>238.70055422313544</v>
+        <v>237.43151907076845</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA116" s="52" cm="1">
+      <c r="Z116" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA116" s="61" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>512.24</v>
+        <v>535.79999999999995</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA117" s="54">
+      <c r="Z117" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA117" s="62">
         <f>AA115/AA116-1</f>
-        <v>-0.5340064145261294</v>
+        <v>-0.55686539927068224</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA118" s="55" t="str">
+      <c r="Z118" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA118" s="63" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Monolithic Power Systems.xlsx
+++ b/Technology/Hardware/Monolithic Power Systems.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBFE5A8-AA52-F746-9A9B-A0104B35A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF691EB-5160-DE47-8226-0DB87BBF8AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -504,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -744,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -855,12 +861,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -927,68 +942,75 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,7 +1061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MPWR</a:t>
+              <a:t>Monolithic Power Systems</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1077,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8388113078310395E-2"/>
-          <c:y val="0.1078497550353838"/>
-          <c:w val="0.87140544335223413"/>
-          <c:h val="0.76178500550795336"/>
+          <c:x val="8.3880794701986755E-2"/>
+          <c:y val="0.13842062427436888"/>
+          <c:w val="0.86181456953642388"/>
+          <c:h val="0.65695952517772782"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1134,6 +1156,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$Y$3</c:f>
@@ -1217,7 +1320,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F11-2243-A58D-715B4E00E42E}"/>
+              <c16:uniqueId val="{00000000-EDBC-1D42-8738-52B4A48DAF7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,11 +1329,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1268,9 +1371,90 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$Y$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$Y$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1281,77 +1465,77 @@
                   <c:v>-1603000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3272603</c:v>
+                  <c:v>-3572603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2428423</c:v>
+                  <c:v>-3237528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1038161</c:v>
+                  <c:v>-3036210</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8003411</c:v>
+                  <c:v>-4451025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15159000</c:v>
+                  <c:v>5107000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17847000</c:v>
+                  <c:v>-2863000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18456000</c:v>
+                  <c:v>9291000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31819000</c:v>
+                  <c:v>24226000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27150000</c:v>
+                  <c:v>19674000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39670000</c:v>
+                  <c:v>29563000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22820000</c:v>
+                  <c:v>13301000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27222000</c:v>
+                  <c:v>15756000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36167000</c:v>
+                  <c:v>22898000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49522000</c:v>
+                  <c:v>35495000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56274000</c:v>
+                  <c:v>35172000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71938000</c:v>
+                  <c:v>52720000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99045000</c:v>
+                  <c:v>65203000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130793000</c:v>
+                  <c:v>105268000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>135292000</c:v>
+                  <c:v>108839000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>197855000</c:v>
+                  <c:v>164375000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>312555000</c:v>
+                  <c:v>242023000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>524937000</c:v>
+                  <c:v>437672000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F11-2243-A58D-715B4E00E42E}"/>
+              <c16:uniqueId val="{00000001-EDBC-1D42-8738-52B4A48DAF7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1402,6 +1586,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Y$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$107:$Y$107</c:f>
@@ -1485,7 +1750,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F11-2243-A58D-715B4E00E42E}"/>
+              <c16:uniqueId val="{00000002-EDBC-1D42-8738-52B4A48DAF7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1499,11 +1764,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="316107599"/>
-        <c:axId val="316109871"/>
+        <c:axId val="1343101680"/>
+        <c:axId val="1343103408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316107599"/>
+        <c:axId val="1343101680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1796,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1543,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316109871"/>
+        <c:crossAx val="1343103408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1551,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316109871"/>
+        <c:axId val="1343103408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1600,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316107599"/>
+        <c:crossAx val="1343101680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1618,10 +1883,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34859823526327482"/>
-          <c:y val="0.92923570182469706"/>
-          <c:w val="0.30280352947345029"/>
-          <c:h val="4.6272009691969623E-2"/>
+          <c:x val="0.36139312718360533"/>
+          <c:y val="0.90312809336367161"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.7559862978291923E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2201,22 +2466,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>65087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DAC5F9-9414-201D-8CFA-B6A9C708737B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E7A63B-C7EB-6B68-55A1-C65EC0F43775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,6 +2500,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2357,11 +2676,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>553.64</v>
+    <v>595.98</v>
     <v>301.69</v>
-    <v>1.1265000000000001</v>
-    <v>9.5299999999999994</v>
-    <v>1.8109E-2</v>
+    <v>1.1362000000000001</v>
+    <v>18.309999999999999</v>
+    <v>3.4339000000000001E-2</v>
+    <v>-3.53</v>
+    <v>-6.4000000000000003E-3</v>
     <v>USD</v>
     <v>Monolithic Power Systems, Inc. is a fabless company that provides semiconductor-based power electronics solutions. The Company operates through one segment that includes the design, development, marketing and sale of semiconductor-based power electronic solutions for the storage and computing, enterprise data, automotive, industrial, communications and consumer markets. Its product families include Direct Current (DC) to DC Products and Lighting Control Products. Its DC to DC integrated circuits (ICs) are used to convert and control voltages within a range of electronic systems, such as portable electronic devices, wireless LAN access points, computers and notebooks, monitors, infotainment applications and medical equipment. Lighting control ICs are used in backlighting and general illumination products. Lighting control ICs for backlighting are used in systems that provide the light source for liquid crystal display (LCD) panels found in computers, monitors, and others.</v>
     <v>3247</v>
@@ -2369,24 +2690,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5808 Lake Washington Blvd NE, KIRKLAND, WA, 98033-7350 US</v>
-    <v>536.77</v>
+    <v>558.53499999999997</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45106.932149270309</v>
+    <v>45132.979918032033</v>
     <v>0</v>
-    <v>524.22</v>
-    <v>25004720000</v>
+    <v>538.88</v>
+    <v>26155207190</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
     <v>MONOLITHIC POWER SYSTEMS, INC.</v>
-    <v>532.25</v>
-    <v>55.485999999999997</v>
-    <v>526.27</v>
-    <v>535.79999999999995</v>
+    <v>538.95000000000005</v>
+    <v>55.218800000000002</v>
+    <v>533.22</v>
+    <v>551.53</v>
+    <v>548</v>
     <v>47423000</v>
     <v>MPWR</v>
     <v>MONOLITHIC POWER SYSTEMS, INC. (XNAS:MPWR)</v>
-    <v>399063</v>
-    <v>725349</v>
+    <v>536643</v>
+    <v>509140</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2418,6 +2740,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2438,6 +2762,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2454,7 +2779,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2465,13 +2790,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2537,13 +2865,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2588,6 +2922,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2595,6 +2932,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2956,10 +3296,10 @@
   <dimension ref="A1:AH118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA99" sqref="AA99"/>
+      <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3230,10 +3570,10 @@
         <v>1794148000</v>
       </c>
       <c r="Z3" s="23">
-        <v>1832000000</v>
+        <v>1839000000</v>
       </c>
       <c r="AA3" s="23">
-        <v>2152000000</v>
+        <v>2159000000</v>
       </c>
       <c r="AB3" s="23">
         <v>2642000000</v>
@@ -3261,110 +3601,110 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70">
         <f>(C3/B3)-1</f>
         <v>7.7533333333333339</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="70">
         <f>(D3/C3)-1</f>
         <v>0.54804931454683925</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="70">
         <f>(E3/D3)-1</f>
         <v>0.50123838380980912</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="70">
         <f t="shared" ref="F4:AD4" si="0">(F3/E3)-1</f>
         <v>0.98305114184872999</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="70">
         <f t="shared" si="0"/>
         <v>0.96638523080848637</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="70">
         <f t="shared" si="0"/>
         <v>1.0828011087458087</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="70">
         <f t="shared" si="0"/>
         <v>5.935580191867329E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="70">
         <f t="shared" si="0"/>
         <v>0.27604627910298518</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="70">
         <f t="shared" si="0"/>
         <v>0.19780752813348856</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="70">
         <f t="shared" si="0"/>
         <v>2.8016771436225607E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="70">
         <f t="shared" si="0"/>
         <v>0.32623872781925733</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="70">
         <f t="shared" si="0"/>
         <v>-0.10199689270700052</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="70">
         <f t="shared" si="0"/>
         <v>8.8001669049811992E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="70">
         <f t="shared" si="0"/>
         <v>0.11354781982386486</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="70">
         <f t="shared" si="0"/>
         <v>0.18666812269258393</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="70">
         <f t="shared" si="0"/>
         <v>0.17885217760631433</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="70">
         <f t="shared" si="0"/>
         <v>0.16692737497260302</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="70">
         <f t="shared" si="0"/>
         <v>0.21165785445049079</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="70">
         <f t="shared" si="0"/>
         <v>0.23666624905240496</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="70">
         <f t="shared" si="0"/>
         <v>7.8194381007654856E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="70">
         <f t="shared" si="0"/>
         <v>0.34483796528544186</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="70">
         <f t="shared" si="0"/>
         <v>0.43027430807198042</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="70">
         <f t="shared" si="0"/>
         <v>0.48547025247599351</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>2.109747913773008E-2</v>
+        <v>2.4999052475046746E-2</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1746724890829694</v>
+        <v>0.17400761283306143</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22769516728624528</v>
+        <v>0.22371468272348305</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
@@ -4464,15 +4804,15 @@
       </c>
       <c r="AF16" s="30">
         <f>AG101/Y3</f>
-        <v>13.936821265581212</v>
+        <v>14.578065572070978</v>
       </c>
       <c r="AG16" s="30">
         <f>AG101/Y28</f>
-        <v>57.13118499698404</v>
+        <v>59.759836567109616</v>
       </c>
       <c r="AH16" s="31">
         <f>AG101/Y107</f>
-        <v>133.12349931587437</v>
+        <v>139.24861811947974</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -4632,13 +4972,13 @@
         <v>123</v>
       </c>
       <c r="AF18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG18" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="AG18" s="19" t="s">
+      <c r="AH18" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="AH18" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -4717,20 +5057,20 @@
       <c r="Y19" s="10">
         <v>524937000</v>
       </c>
-      <c r="Z19" s="10">
-        <v>524937001</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>524937002</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>524937003</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>524937004</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>524937005</v>
+      <c r="Z19" s="66">
+        <v>692500000</v>
+      </c>
+      <c r="AA19" s="66">
+        <v>830100000</v>
+      </c>
+      <c r="AB19" s="66">
+        <v>950800000</v>
+      </c>
+      <c r="AC19" s="66">
+        <v>1153000000</v>
+      </c>
+      <c r="AD19" s="66">
+        <v>1383000000</v>
       </c>
       <c r="AE19" s="25">
         <f>Y40-Y56-Y61</f>
@@ -4738,15 +5078,15 @@
       </c>
       <c r="AF19" s="33">
         <f>AG101/Z3</f>
-        <v>13.648864628820961</v>
+        <v>14.222516144643828</v>
       </c>
       <c r="AG19" s="30">
-        <f>AG102/Z28</f>
-        <v>2.2848160213931529E-9</v>
-      </c>
-      <c r="AH19" s="31" t="e">
-        <f>AG102/Z107</f>
-        <v>#DIV/0!</v>
+        <f>AG101/Z28</f>
+        <v>44.940218539518902</v>
+      </c>
+      <c r="AH19" s="31">
+        <f>AG101/Z106</f>
+        <v>46.064119742867206</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,25 +5186,25 @@
         <f t="shared" si="3"/>
         <v>0.67950280750587888</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="67">
         <f t="shared" ref="Z20" si="4">(Z19/Y19)-1</f>
-        <v>1.904990609702395E-9</v>
-      </c>
-      <c r="AA20" s="15">
+        <v>0.31920592375847012</v>
+      </c>
+      <c r="AA20" s="67">
         <f t="shared" ref="AA20" si="5">(AA19/Z19)-1</f>
-        <v>1.904990609702395E-9</v>
-      </c>
-      <c r="AB20" s="15">
+        <v>0.19870036101083022</v>
+      </c>
+      <c r="AB20" s="67">
         <f t="shared" ref="AB20" si="6">(AB19/AA19)-1</f>
-        <v>1.9049903876577901E-9</v>
-      </c>
-      <c r="AC20" s="15">
+        <v>0.14540416817250934</v>
+      </c>
+      <c r="AC20" s="67">
         <f t="shared" ref="AC20" si="7">(AC19/AB19)-1</f>
-        <v>1.9049903876577901E-9</v>
-      </c>
-      <c r="AD20" s="15">
+        <v>0.21266302061421971</v>
+      </c>
+      <c r="AD20" s="67">
         <f t="shared" ref="AD20" si="8">(AD19/AC19)-1</f>
-        <v>1.9049903876577901E-9</v>
+        <v>0.19947961838681705</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -4943,26 +5283,31 @@
       <c r="Y21" s="2">
         <v>0.29260000000000003</v>
       </c>
-      <c r="Z21" s="2">
-        <v>1.2926</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>2.2926000000000002</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>3.2926000000000002</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>4.2926000000000002</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>5.2926000000000002</v>
+      <c r="Z21" s="68">
+        <f>Z19/Z3</f>
+        <v>0.37656334964654703</v>
+      </c>
+      <c r="AA21" s="68">
+        <f t="shared" ref="AA21:AD21" si="9">AA19/AA3</f>
+        <v>0.38448355720240851</v>
+      </c>
+      <c r="AB21" s="68">
+        <f t="shared" si="9"/>
+        <v>0.35987887963663889</v>
+      </c>
+      <c r="AC21" s="68">
+        <f t="shared" si="9"/>
+        <v>0.41061253561253563</v>
+      </c>
+      <c r="AD21" s="68">
+        <f t="shared" si="9"/>
+        <v>0.41531531531531529</v>
       </c>
       <c r="AG21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH21" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="AH21" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -5041,13 +5386,13 @@
       <c r="Y22" s="10">
         <v>534786000</v>
       </c>
-      <c r="AG22" s="36">
-        <f>Y99/AG102</f>
-        <v>9180000</v>
-      </c>
-      <c r="AH22" s="37">
-        <f>Y108/AG102</f>
-        <v>0</v>
+      <c r="AG22" s="62">
+        <f>Y98/AG101*-1</f>
+        <v>5.2748578513554497E-3</v>
+      </c>
+      <c r="AH22" s="36">
+        <f>Y107/AG101</f>
+        <v>7.1813998121113718E-3</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -5511,20 +5856,20 @@
       <c r="Y28" s="11">
         <v>437672000</v>
       </c>
-      <c r="Z28" s="11">
-        <v>437672001</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>437672002</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>437672003</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>437672004</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>437672005</v>
+      <c r="Z28" s="63">
+        <v>582000000</v>
+      </c>
+      <c r="AA28" s="63">
+        <v>670400000</v>
+      </c>
+      <c r="AB28" s="63">
+        <v>850800000</v>
+      </c>
+      <c r="AC28" s="63">
+        <v>925100000</v>
+      </c>
+      <c r="AD28" s="63">
+        <v>1051000000</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5545,104 +5890,104 @@
         <v>-9.3790158044428695E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Y29" si="9">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Y29" si="10">(F28/E28)-1</f>
         <v>-6.2182628227462455E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.46598061398915092</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.1473761661639736</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.5606030937928335</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-4.2451973454418441</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.607469594230976</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18789730042103525</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50264308224052057</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.55007949125596189</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1845725885271785</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.45328763645595327</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55013538300288234</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.0998732215804568E-3</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.49891959513249184</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.23677921092564502</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.61446559207398432</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3922939544780872E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51025827139168856</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.47238326996197721</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.80839011168360031</v>
       </c>
-      <c r="Z29" s="15">
-        <f t="shared" ref="Z29" si="10">(Z28/Y28)-1</f>
-        <v>2.2848161140842649E-9</v>
-      </c>
-      <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="11">(AA28/Z28)-1</f>
-        <v>2.2848161140842649E-9</v>
-      </c>
-      <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="12">(AB28/AA28)-1</f>
-        <v>2.2848161140842649E-9</v>
-      </c>
-      <c r="AC29" s="15">
-        <f t="shared" ref="AC29" si="13">(AC28/AB28)-1</f>
-        <v>2.2848161140842649E-9</v>
-      </c>
-      <c r="AD29" s="15">
-        <f t="shared" ref="AD29" si="14">(AD28/AC28)-1</f>
-        <v>2.2848161140842649E-9</v>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="11">(Z28/Y28)-1</f>
+        <v>0.32976292748907854</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="12">(AA28/Z28)-1</f>
+        <v>0.15189003436426107</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="13">(AB28/AA28)-1</f>
+        <v>0.26909307875894983</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="14">(AC28/AB28)-1</f>
+        <v>8.7329572167371916E-2</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="15">(AD28/AC28)-1</f>
+        <v>0.13609339530861519</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -5721,20 +6066,25 @@
       <c r="Y30" s="2">
         <v>0.24390000000000001</v>
       </c>
-      <c r="Z30" s="2">
-        <v>1.2439</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>2.2439</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>3.2439</v>
-      </c>
-      <c r="AC30" s="2">
-        <v>4.2439</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>5.2439</v>
+      <c r="Z30" s="64">
+        <f>Z28/Z3</f>
+        <v>0.31647634584013051</v>
+      </c>
+      <c r="AA30" s="64">
+        <f t="shared" ref="AA30:AD30" si="16">AA28/AA3</f>
+        <v>0.31051412691060676</v>
+      </c>
+      <c r="AB30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.32202876608629827</v>
+      </c>
+      <c r="AC30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.32945156695156697</v>
+      </c>
+      <c r="AD30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.31561561561561563</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -5813,20 +6163,20 @@
       <c r="Y31" s="12">
         <v>9.52</v>
       </c>
-      <c r="Z31" s="12">
-        <v>10.52</v>
-      </c>
-      <c r="AA31" s="12">
-        <v>11.52</v>
-      </c>
-      <c r="AB31" s="12">
-        <v>12.52</v>
-      </c>
-      <c r="AC31" s="12">
-        <v>13.52</v>
-      </c>
-      <c r="AD31" s="12">
-        <v>14.52</v>
+      <c r="Z31" s="65">
+        <v>12.27</v>
+      </c>
+      <c r="AA31" s="65">
+        <v>14.14</v>
+      </c>
+      <c r="AB31" s="65">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="AC31" s="65">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="AD31" s="65">
+        <v>22.17</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -6070,91 +6420,91 @@
         <v>3.1063829787234043E-2</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" ref="D35:Y35" si="15">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Y35" si="17">(D34-C34)/C34</f>
         <v>0.1724694593479158</v>
       </c>
       <c r="E35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.186092685276657E-2</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.7869333736325251E-2</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.48646292815631836</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3805188988647652</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.4345826179909946E-2</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.18941088739746459</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.9353092049016812E-2</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4230343300110741E-2</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.2538079379811104E-2</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-7.0480621794532863E-2</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.0915813424345847E-2</v>
       </c>
       <c r="P35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.5467486964438437E-2</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.0372863801139308E-2</v>
       </c>
       <c r="R35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7039931646269444E-2</v>
       </c>
       <c r="S35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.5593970980449729E-2</v>
       </c>
       <c r="T35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.9675533818442084E-2</v>
       </c>
       <c r="U35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3498095369223003E-2</v>
       </c>
       <c r="V35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.6030222859961438E-2</v>
       </c>
       <c r="W35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7336494547997289E-2</v>
       </c>
       <c r="X35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.7824477815118901E-2</v>
       </c>
       <c r="Y35" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -9551,99 +9901,99 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:Y80" si="16">B79/B3</f>
+        <f t="shared" ref="B80:Y80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.19756901396166E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.854722195287501E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.6814110765856328E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6792523878098295E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.723510731340002E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.6945747634307888E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11840656909763392</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12478870617623482</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11575264044871547</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11173021835563322</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10406743340281809</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12533264534869831</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10130948828352589</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.10223481078789665</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.9731727817326107E-2</v>
       </c>
     </row>
@@ -9877,10 +10227,10 @@
       <c r="Y83" s="1">
         <v>-188073000</v>
       </c>
-      <c r="AF83" s="39" t="s">
+      <c r="AF83" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="AG83" s="40"/>
+      <c r="AG83" s="60"/>
     </row>
     <row r="84" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9958,10 +10308,10 @@
       <c r="Y84" s="1">
         <v>-11240000</v>
       </c>
-      <c r="AF84" s="41" t="s">
+      <c r="AF84" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AG84" s="41"/>
+      <c r="AG84" s="61"/>
     </row>
     <row r="85" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10039,10 +10389,10 @@
       <c r="Y85" s="1">
         <v>28514000</v>
       </c>
-      <c r="AF85" s="42" t="s">
+      <c r="AF85" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AG85" s="43">
+      <c r="AG85" s="39">
         <f>Y17</f>
         <v>14369000</v>
       </c>
@@ -10123,10 +10473,10 @@
       <c r="Y86" s="1">
         <v>11072000</v>
       </c>
-      <c r="AF86" s="42" t="s">
+      <c r="AF86" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AG86" s="43">
+      <c r="AG86" s="39">
         <f>Y56</f>
         <v>0</v>
       </c>
@@ -10207,10 +10557,10 @@
       <c r="Y87" s="10">
         <v>246674000</v>
       </c>
-      <c r="AF87" s="42" t="s">
+      <c r="AF87" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AG87" s="43">
+      <c r="AG87" s="39">
         <f>Y61</f>
         <v>0</v>
       </c>
@@ -10291,10 +10641,10 @@
       <c r="Y88" s="1">
         <v>-58843000</v>
       </c>
-      <c r="AF88" s="44" t="s">
+      <c r="AF88" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="AG88" s="45" t="e">
+      <c r="AG88" s="41" t="e">
         <f>AG85/(AG86+AG87)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10304,105 +10654,105 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:Y89" si="17">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:Y89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.1497929672197582E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>8.803630398863603E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.7522956945184731E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.7626333912658418E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.8944628824484774E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.1170785125934388E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9647771708307212E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.2602126957030984E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.0324347910404343E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10408974593310182</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.10697184496155589</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.8492608026640102E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.6209978537617967E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.3663085989346454E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.8110440241753163E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.548582969909819E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.13966648900365022</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.8679080053985182E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.15413881682568348</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.5887699952158318E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.8196022844879684E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.279718284110341E-2</v>
       </c>
-      <c r="AF89" s="42" t="s">
+      <c r="AF89" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AG89" s="43">
+      <c r="AG89" s="39">
         <f>Y27</f>
         <v>87265000</v>
       </c>
@@ -10483,10 +10833,10 @@
       <c r="Y90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF90" s="42" t="s">
+      <c r="AF90" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AG90" s="43">
+      <c r="AG90" s="39">
         <f>Y25</f>
         <v>524937000</v>
       </c>
@@ -10567,10 +10917,10 @@
       <c r="Y91" s="1">
         <v>-65785000</v>
       </c>
-      <c r="AF91" s="44" t="s">
+      <c r="AF91" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="AG91" s="45">
+      <c r="AG91" s="41">
         <f>AG89/AG90</f>
         <v>0.16623899629860345</v>
       </c>
@@ -10651,10 +11001,10 @@
       <c r="Y92" s="1">
         <v>128610000</v>
       </c>
-      <c r="AF92" s="44" t="s">
+      <c r="AF92" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AG92" s="45">
+      <c r="AG92" s="41">
         <f>0</f>
         <v>0</v>
       </c>
@@ -10735,10 +11085,10 @@
       <c r="Y93" s="1">
         <v>-16492000</v>
       </c>
-      <c r="AF93" s="41" t="s">
+      <c r="AF93" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="AG93" s="41"/>
+      <c r="AG93" s="61"/>
     </row>
     <row r="94" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10816,11 +11166,12 @@
       <c r="Y94" s="10">
         <v>-12510000</v>
       </c>
-      <c r="AF94" s="42" t="s">
+      <c r="AF94" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AG94" s="46">
-        <v>4.095E-2</v>
+      <c r="AG94" s="42">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10899,12 +11250,12 @@
       <c r="Y95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF95" s="42" t="s">
+      <c r="AF95" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AG95" s="47" cm="1">
+      <c r="AG95" s="43" cm="1">
         <f t="array" ref="AG95">_FV(A1,"Beta")</f>
-        <v>1.1265000000000001</v>
+        <v>1.1362000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -10983,10 +11334,10 @@
       <c r="Y96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF96" s="42" t="s">
+      <c r="AF96" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="AG96" s="46">
+      <c r="AG96" s="42">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11066,12 +11417,12 @@
       <c r="Y97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AF97" s="44" t="s">
+      <c r="AF97" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AG97" s="45">
+      <c r="AG97" s="41">
         <f>(AG94)+((AG95)*(AG96-AG94))</f>
-        <v>8.9445825000000007E-2</v>
+        <v>9.0187566000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11150,10 +11501,10 @@
       <c r="Y98" s="1">
         <v>-137965000</v>
       </c>
-      <c r="AF98" s="41" t="s">
+      <c r="AF98" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="AG98" s="41"/>
+      <c r="AG98" s="61"/>
     </row>
     <row r="99" spans="1:33" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11231,10 +11582,10 @@
       <c r="Y99" s="1">
         <v>9180000</v>
       </c>
-      <c r="AF99" s="42" t="s">
+      <c r="AF99" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="AG99" s="43">
+      <c r="AG99" s="39">
         <f>AG86+AG87</f>
         <v>0</v>
       </c>
@@ -11315,10 +11666,10 @@
       <c r="Y100" s="10">
         <v>-128785000</v>
       </c>
-      <c r="AF100" s="44" t="s">
+      <c r="AF100" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="AG100" s="45">
+      <c r="AG100" s="41">
         <f>AG99/AG103</f>
         <v>0</v>
       </c>
@@ -11399,12 +11750,12 @@
       <c r="Y101" s="1">
         <v>-6039000</v>
       </c>
-      <c r="AF101" s="42" t="s">
+      <c r="AF101" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="AG101" s="48" cm="1">
+      <c r="AG101" s="28" cm="1">
         <f t="array" ref="AG101">_FV(A1,"Market cap",TRUE)</f>
-        <v>25004720000</v>
+        <v>26155207190</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="20" x14ac:dyDescent="0.25">
@@ -11483,10 +11834,10 @@
       <c r="Y102" s="10">
         <v>99340000</v>
       </c>
-      <c r="AF102" s="44" t="s">
+      <c r="AF102" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="AG102" s="45">
+      <c r="AG102" s="41">
         <f>AG101/AG103</f>
         <v>1</v>
       </c>
@@ -11567,12 +11918,12 @@
       <c r="Y103" s="1">
         <v>189389000</v>
       </c>
-      <c r="AF103" s="44" t="s">
+      <c r="AF103" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AG103" s="49">
+      <c r="AG103" s="44">
         <f>AG99+AG101</f>
-        <v>25004720000</v>
+        <v>26155207190</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11651,174 +12002,268 @@
       <c r="Y104" s="11">
         <v>288729000</v>
       </c>
-      <c r="AF104" s="41" t="s">
+      <c r="AF104" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="AG104" s="41"/>
+      <c r="AG104" s="61"/>
     </row>
     <row r="105" spans="1:33" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:X105" si="20">(B22*(1-$AG$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-2535433.5773626165</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-2941202.8699139133</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-4224076.8214890547</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>1139490.2585872225</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>15892431.127925828</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>5667694.8395712245</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>2141468.9057925045</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>13678458.910307329</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>1780352.402288273</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>2044043.0908851922</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>5485571.3866616376</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>-18575443.61704357</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>20869394.403518897</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>25001763.430659294</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>19355564.422016352</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>20011785.368529938</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>30577111.950576931</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>46884868.788064092</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>21403196.061622635</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="20"/>
+        <v>99019615.790085256</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="20"/>
+        <v>81407061.308309376</v>
       </c>
       <c r="Y105" s="1">
-        <f>(Y21*(1-$AC$92))+Y77+Y88+Y81</f>
-        <v>-408684999.70740002</v>
-      </c>
-      <c r="Z105" s="34">
-        <v>567800000</v>
-      </c>
-      <c r="AA105" s="34">
-        <v>628700000</v>
-      </c>
-      <c r="AB105" s="34">
-        <v>687000000</v>
-      </c>
-      <c r="AC105" s="34">
-        <v>897900000</v>
-      </c>
-      <c r="AD105" s="34">
-        <v>986600000</v>
-      </c>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="50" t="s">
+        <f>(Y22*(1-$AG$91))+Y77+Y88+Y81</f>
+        <v>37198712.125455022</v>
+      </c>
+      <c r="Z105" s="26">
+        <f>Y105*(1+$AG$106)</f>
+        <v>42194126.971613571</v>
+      </c>
+      <c r="AA105" s="26">
+        <f t="shared" ref="AA105:AD105" si="21">Z105*(1+$AG$106)</f>
+        <v>47860376.049910635</v>
+      </c>
+      <c r="AB105" s="26">
+        <f t="shared" si="21"/>
+        <v>54287545.685680121</v>
+      </c>
+      <c r="AC105" s="26">
+        <f t="shared" si="21"/>
+        <v>61577819.896388158</v>
+      </c>
+      <c r="AD105" s="26">
+        <f t="shared" si="21"/>
+        <v>69847104.990642801</v>
+      </c>
+      <c r="AE105" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF105" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="AG105" s="51">
+      <c r="AG105" s="46">
         <f>(AG100*AG92)+(AG102*AG97)</f>
-        <v>8.9445825000000007E-2</v>
+        <v>9.0187566000000011E-2</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:Y106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.18185896551724134</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.3383836276631409</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.97719375195654656</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>-147.56457903188806</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.71662427444074872</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>3.071576524741082</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.94206093493866927</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.37421777221526908</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.19604651162790687</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.118685592066887</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.82998720381238145</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>10.658967038671165</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.43853791015538035</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.1688279533285878</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.3157953529937445</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>-3.7156521493052597E-2</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.74766341406066306</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>4.9695186041622819E-3</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.77519327956089557</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="22"/>
         <v>5.9425727267585549E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.16434876230135431</v>
       </c>
-      <c r="Z106" s="26">
-        <f>Y107*(1+$AG$106)</f>
-        <v>213082765.22307825</v>
-      </c>
-      <c r="AA106" s="26">
-        <f t="shared" ref="AA106:AD106" si="18">Z106*(1+$AG$106)</f>
-        <v>241729346.24802873</v>
-      </c>
-      <c r="AB106" s="26">
-        <f t="shared" si="18"/>
-        <v>274227137.87445575</v>
-      </c>
-      <c r="AC106" s="26">
-        <f t="shared" si="18"/>
-        <v>311093892.04923236</v>
-      </c>
-      <c r="AD106" s="26">
-        <f t="shared" si="18"/>
-        <v>352916966.64480424</v>
+      <c r="Z106" s="34">
+        <v>567800000</v>
+      </c>
+      <c r="AA106" s="34">
+        <v>627300000</v>
+      </c>
+      <c r="AB106" s="34">
+        <v>688500000</v>
+      </c>
+      <c r="AC106" s="34">
+        <v>897900000</v>
+      </c>
+      <c r="AD106" s="34">
+        <v>986600000</v>
       </c>
       <c r="AE106" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF106" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AF106" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG106" s="53">
+      <c r="AG106" s="48">
         <f>(SUM(Z4:AD4)/5)</f>
-        <v>0.13443875197958924</v>
+        <v>0.13428999448451853</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
-        <v>165</v>
+      <c r="A107" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -11897,134 +12342,134 @@
       <c r="AB107" s="27"/>
       <c r="AC107" s="27"/>
       <c r="AD107" s="35">
-        <f>AD105*(1+AG107)/(AG108-AG107)</f>
-        <v>15691706949.208885</v>
+        <f>AD106*(1+AG107)/(AG108-AG107)</f>
+        <v>15513157831.356977</v>
       </c>
       <c r="AE107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF107" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="AF107" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG107" s="55">
+      <c r="AG107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z108" s="28">
-        <f t="shared" ref="Z108:AB108" si="19">Z107+Z106</f>
-        <v>213082765.22307825</v>
-      </c>
-      <c r="AA108" s="28">
-        <f t="shared" si="19"/>
-        <v>241729346.24802873</v>
-      </c>
-      <c r="AB108" s="28">
-        <f t="shared" si="19"/>
-        <v>274227137.87445575</v>
-      </c>
-      <c r="AC108" s="28">
-        <f>AC107+AC106</f>
-        <v>311093892.04923236</v>
+      <c r="Z108" s="35">
+        <f t="shared" ref="Z108:AC108" si="23">Z107+Z106</f>
+        <v>567800000</v>
+      </c>
+      <c r="AA108" s="35">
+        <f t="shared" si="23"/>
+        <v>627300000</v>
+      </c>
+      <c r="AB108" s="35">
+        <f t="shared" si="23"/>
+        <v>688500000</v>
+      </c>
+      <c r="AC108" s="35">
+        <f t="shared" si="23"/>
+        <v>897900000</v>
       </c>
       <c r="AD108" s="35">
-        <f>AD107+AD105</f>
-        <v>16678306949.208885</v>
+        <f>AD107+AD106</f>
+        <v>16499757831.356977</v>
       </c>
       <c r="AE108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AF108" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG108" s="53">
+      <c r="AF108" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG108" s="48">
         <f>AG105</f>
-        <v>8.9445825000000007E-2</v>
+        <v>9.0187566000000011E-2</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="19" x14ac:dyDescent="0.25">
-      <c r="Z109" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA109" s="57"/>
+      <c r="Z109" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA109" s="58"/>
     </row>
     <row r="110" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z110" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA110" s="48">
+      <c r="Z110" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA110" s="28">
         <f>NPV(AG108,Z108,AA108,AB108,AC108,AD108)</f>
-        <v>11699519342.745905</v>
+        <v>12930151939.869316</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z111" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA111" s="48">
+      <c r="Z111" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA111" s="28">
         <f>Y40</f>
         <v>737873000</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z112" s="58" t="s">
+      <c r="Z112" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="AA112" s="48">
+      <c r="AA112" s="28">
         <f>AG99</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z113" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA113" s="48">
+      <c r="Z113" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA113" s="28">
         <f>AA110+AA111-AA112</f>
-        <v>12437392342.745905</v>
+        <v>13668024939.869316</v>
       </c>
     </row>
     <row r="114" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z114" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA114" s="58">
+      <c r="Z114" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA114" s="52">
         <f>Y34*(1+(5*AE16))</f>
         <v>52383071.933422774</v>
       </c>
     </row>
     <row r="115" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z115" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA115" s="60">
+      <c r="Z115" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA115" s="54">
         <f>AA113/AA114</f>
-        <v>237.43151907076845</v>
+        <v>260.92446348394657</v>
       </c>
     </row>
     <row r="116" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z116" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA116" s="61" cm="1">
+      <c r="Z116" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA116" s="55" cm="1">
         <f t="array" ref="AA116">_FV(A1,"Price")</f>
-        <v>535.79999999999995</v>
+        <v>551.53</v>
       </c>
     </row>
     <row r="117" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z117" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA117" s="62">
+      <c r="Z117" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA117" s="56">
         <f>AA115/AA116-1</f>
-        <v>-0.55686539927068224</v>
+        <v>-0.526907940666969</v>
       </c>
     </row>
     <row r="118" spans="26:27" ht="20" x14ac:dyDescent="0.25">
-      <c r="Z118" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA118" s="63" t="str">
+      <c r="Z118" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA118" s="57" t="str">
         <f>IF(AA115&gt;AA116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12089,8 +12534,9 @@
     <hyperlink ref="Y36" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1280452/000143774923004540/0001437749-23-004540-index.htm" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="Y74" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1280452/000143774923004540/0001437749-23-004540-index.htm" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="Z1" r:id="rId50" display="https://finbox.com/NASDAQGS:MPWR/explorer/revenue_proj" xr:uid="{56A6BE56-64D4-3441-869C-6BDA535CE258}"/>
+    <hyperlink ref="AE106" r:id="rId51" xr:uid="{1B240C31-999A-714A-99CB-A640E3FF98D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId51"/>
+  <drawing r:id="rId52"/>
 </worksheet>
 </file>